--- a/script/Pr_temp_spreadsheets/05_01_CIEL05_1.xlsx
+++ b/script/Pr_temp_spreadsheets/05_01_CIEL05_1.xlsx
@@ -60,7 +60,7 @@
     <t>　俺が戦うと決めたのは、自分だけが生き残る為ではなかった筈だ。</t>
   </si>
   <si>
-    <t xml:space="preserve">When I decided to fight, it wasn't only for my own survival. </t>
+    <t>When I decided to fight, it wasn't only for my own survival.</t>
   </si>
   <si>
     <t>&lt;Page4&gt;</t>
@@ -75,7 +75,7 @@
     <t>　でも、本当に不意はつけないのか。睡眠中の死徒は用心深いっていうけど、どのくらい危険なんだ？」</t>
   </si>
   <si>
-    <t xml:space="preserve">But can we really not take them by surprise? You said that sleeping Dead Apostles are cautious, but how dangerous could they be?" </t>
+    <t>But can we really not take them by surprise? You said that sleeping Dead Apostles are cautious, but how dangerous could they be?"</t>
   </si>
   <si>
     <t>&lt;Page5&gt;</t>
@@ -90,13 +90,13 @@
     <t>　眠りについたアルクェイドは完全に無防備だった。</t>
   </si>
   <si>
-    <t xml:space="preserve">She was completely defenseless while asleep. </t>
+    <t>She was completely defenseless while asleep.</t>
   </si>
   <si>
     <t>　他の動物だって睡眠中は無防備だが、こいつの場合は無防備というより無警戒……機械に喩えるなら“電源が落ちている”状態だったと思う。</t>
   </si>
   <si>
-    <t xml:space="preserve">Other animals may be vulnerable during sleep as well, but in her case, it swings more towards carelessness... She was just like a machine cut off from electricity. </t>
+    <t>Other animals may be vulnerable during sleep as well, but in her case, it swings more towards carelessness... She was just like a machine cut off from electricity.</t>
   </si>
   <si>
     <t>&lt;Page6&gt;</t>
@@ -111,7 +111,7 @@
     <t>　起きているヴローヴには近づく事も出来ないが、眠っている相手なら、俺には絶対の殺害手段がある―――</t>
   </si>
   <si>
-    <t xml:space="preserve">I can't even get close to Vlov normally, but if he's asleep, I've got a surefire way to kill him... </t>
+    <t xml:space="preserve">I can't even get close to Vlov normally, but if he's asleep, I've got a surefire way to kill him――― </t>
   </si>
   <si>
     <t>&lt;Page7&gt;</t>
@@ -120,13 +120,13 @@
     <t>「どのくらい危険かって、ほとんど城攻めのようなものよ。</t>
   </si>
   <si>
-    <t>“How dangerous is it? It's almost like attacking a castle.</t>
+    <t>"How dangerous is it? It's almost like attacking a castle.</t>
   </si>
   <si>
     <t>　死徒は堅固な要塞を作って、その奥で眠りにつく。</t>
   </si>
   <si>
-    <t xml:space="preserve">Dead Apostles build strong fortresses and sleep deep within them. </t>
+    <t>Dead Apostles build strong fortresses and sleep deep within them.</t>
   </si>
   <si>
     <t>　正門から最深部までは眷属たちが警護しているから、突破する頃には夜になっているのがザラね」</t>
@@ -141,7 +141,7 @@
     <t>「突破する頃、か……おまえが元気な時でもヴローヴの城攻めは厳しいのか？」</t>
   </si>
   <si>
-    <t>"'By the time we break through'... would it be difficult for you to attack Vlov's castle, even at full-strength?" // quotation marks might look awkward</t>
+    <t>"'By the time we break through'... would it be difficult for you to attack Vlov's castle, even at full-strength?"// quotation marks might look awkward</t>
   </si>
   <si>
     <t>&lt;Page9&gt;</t>
@@ -150,13 +150,13 @@
     <t>「安くみないで、万全なら正面から城ごと潰しているわ。</t>
   </si>
   <si>
-    <t xml:space="preserve">"Don't take me so lightly. If I wasn't weakened, I would have crushed his castle head-on. </t>
+    <t>"Don't take me so lightly. If I wasn't weakened, I would have crushed his castle head-on.</t>
   </si>
   <si>
     <t>　……まあ、それだとカンタンに逃げられちゃうんだけど。</t>
   </si>
   <si>
-    <t xml:space="preserve">...Well, he would have simply run away in that case. </t>
+    <t>...Well, he would have simply run away in that case.</t>
   </si>
   <si>
     <t>　歴戦の死徒は事前に逃走経路を用意しておいて、自分より強い個体がやってきた場合、一目散に逃げ出すのよ」</t>
@@ -171,13 +171,13 @@
     <t>「……自分より強い個体が来た場合……」</t>
   </si>
   <si>
-    <t>...If an individual stronger than themselves approaches...'</t>
+    <t>"...If an individual stronger than themselves approaches..."</t>
   </si>
   <si>
     <t>　つまり、取るに足りない人間がひとりやってきたところで、警戒せずに眠り続ける可能性が高い、という事だ。</t>
   </si>
   <si>
-    <t xml:space="preserve">In other words, if it's a single insignificant human, there is a good chance that he will keep on sleeping without being alerted. </t>
+    <t>In other words, if it's a single insignificant human, there is a good chance that he will keep on sleeping without being alerted.</t>
   </si>
   <si>
     <t>&lt;Page11&gt;</t>
@@ -186,7 +186,7 @@
     <t>　アルクェイドにはなくて、俺にはある利点。</t>
   </si>
   <si>
-    <t xml:space="preserve">It's an advantage that Arcueid doesn't have, but I do. </t>
+    <t>It's an advantage that Arcueid doesn't have, but I do.</t>
   </si>
   <si>
     <t>　城を壊すには大量の砲弾を必要とする。</t>
@@ -198,7 +198,7 @@
     <t>　けれど生き物を一体殺すだけなら、一握りの毒で事足りる。</t>
   </si>
   <si>
-    <t xml:space="preserve">But a bit of poison is enough to kill a single living being.  </t>
+    <t>But a bit of poison is enough to kill a single living being.</t>
   </si>
   <si>
     <t>&lt;Page12&gt;</t>
@@ -207,13 +207,13 @@
     <t>「分かったよ。たしかにおまえと俺のコンビじゃ攻めこむのは難しそうだ。</t>
   </si>
   <si>
-    <t xml:space="preserve">"I get it. You're right, it's going to be difficult for both of us to attack. </t>
+    <t>"I get it. You're right, it's going to be difficult for both of us to attack.</t>
   </si>
   <si>
     <t>　……でもヴローヴの根城はそんなに危険なのか？　いや、大きさとか、手下が多いとか、そういう話だけど」</t>
   </si>
   <si>
-    <t xml:space="preserve">...But is Vlov's stronghold really that dangerous? Ah, I'm talking about the size, the number of minions, that kind of stuff." </t>
+    <t>...But is Vlov's stronghold really that dangerous? Ah, I'm talking about the size, the number of minions, that kind of stuff."</t>
   </si>
   <si>
     <t>&lt;Page13&gt;</t>
@@ -222,13 +222,13 @@
     <t>「んー、難易度的には中の下ってところかな。城っていうより迷路だし、デパートを利用してるだけだし。</t>
   </si>
   <si>
-    <t>"Hmm, around lower-middle in terms of difficulty. It's more of a maze than a castle, and its just a department store after all.</t>
+    <t>"Hmm, around lower-middle in terms of difficulty. It's more of a maze than a castle, and it's just a department store after all.</t>
   </si>
   <si>
     <t>　うん、きっと入り口はあそこ。それは間違いないと思う」</t>
   </si>
   <si>
-    <t xml:space="preserve">Yeah, I'm pretty sure that's the entrance. I don't think I'm wrong about that." </t>
+    <t>Yeah, I'm pretty sure that's the entrance. I don't think I'm wrong about that."</t>
   </si>
   <si>
     <t>&lt;Page14&gt;</t>
@@ -237,7 +237,7 @@
     <t>「デパート？」</t>
   </si>
   <si>
-    <t xml:space="preserve">"A department store?" </t>
+    <t>"A department store?"</t>
   </si>
   <si>
     <t>　吸血鬼たちのよく分からない専門用語じゃなくて、百貨店的なデパート？</t>
@@ -252,13 +252,13 @@
     <t>「そ。北口の駅前の、公園の前にある大きなやつ。</t>
   </si>
   <si>
-    <t xml:space="preserve">"Yes. The big one in front of the park at the north gate. </t>
+    <t>"Yes. The big one in front of the park at the north gate.</t>
   </si>
   <si>
     <t>　うまく隠されているけど、アレ、死徒の巣よ。食料はあのデパートから城主の下に送られてると思うけど」</t>
   </si>
   <si>
-    <t xml:space="preserve">It's well hidden, but it's the nest of that Dead Apostle. I think the food is being sent to the Castle Lord through it." </t>
+    <t>It's well hidden, but it's the nest of that Dead Apostle. I think the food is being sent to the Castle Lord through it."</t>
   </si>
   <si>
     <t>&lt;Page16&gt;</t>
@@ -297,25 +297,25 @@
     <t>「っ――――――」</t>
   </si>
   <si>
-    <t xml:space="preserve">"――――――" </t>
+    <t>"――――――"</t>
   </si>
   <si>
     <t>　当然のように語るアルクェイドから目を背ける。</t>
   </si>
   <si>
-    <t xml:space="preserve">I turn away from Arcueid, who says such a thing as if it were obvious. </t>
+    <t>I turn away from Arcueid, who says such a thing as if it were obvious.</t>
   </si>
   <si>
     <t>　……改めて決意が固まった。</t>
   </si>
   <si>
-    <t xml:space="preserve">...I'm even more determined. </t>
+    <t>...I'm even more determined.</t>
   </si>
   <si>
     <t>　ヤツがそんな身近にいる害虫だと言うのなら、もう一刻の猶予も与えない。</t>
   </si>
   <si>
-    <t xml:space="preserve">I'm not going to let a pest like him remain so close for even one more second. </t>
+    <t>I'm not going to let a pest like him remain so close for even one more second.</t>
   </si>
   <si>
     <t>&lt;Page19&gt;</t>
@@ -404,9 +404,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -792,7 +791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852716c2-7b0e-4030-a991-6b53a29a020f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a83e8682-02a6-411b-85ea-4c208e3d060b}">
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -800,7 +799,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="93.85714285714286" customWidth="1"/>
-    <col min="2" max="2" width="153.14285714285714" customWidth="1"/>
+    <col min="2" max="2" width="152.57142857142858" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -1047,7 +1046,7 @@
       <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1314,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0542e1a5-566e-4d25-8772-2279db450ddd}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96747d21-8a89-426d-bf3d-f5b3a7e5b718}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -1322,7 +1321,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
